--- a/courbes_presentation.xlsx
+++ b/courbes_presentation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aeroportsdeparis-my.sharepoint.com/personal/wassim_zouitene_adp_fr/Documents/Documents/GitHub/pifprevi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="67" documentId="8_{AD1CC2AC-FCB9-430D-9A7B-B671BDD69D72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B6C95EC1-6CAC-4204-8A8F-10BAB1849FCA}"/>
+  <xr:revisionPtr revIDLastSave="84" documentId="8_{AD1CC2AC-FCB9-430D-9A7B-B671BDD69D72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52264843-E1C4-49B5-AC84-C2ACE14C33D3}"/>
   <bookViews>
-    <workbookView xWindow="-56520" yWindow="-3375" windowWidth="18240" windowHeight="28440" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-3390" windowWidth="38640" windowHeight="21240" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EK" sheetId="14" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8518" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8614" uniqueCount="42">
   <si>
     <t>heure_debut</t>
   </si>
@@ -653,7 +653,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DC4C5DD-AF19-43BC-BED7-9381E519322E}">
   <dimension ref="A1:E265"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
@@ -5179,11 +5179,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEDD0655-5796-4AA3-BE7A-3120B8381DC3}">
   <dimension ref="A1:E265"/>
   <sheetViews>
-    <sheetView topLeftCell="A134" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView topLeftCell="A239" workbookViewId="0">
+      <selection activeCell="L284" sqref="L284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="21.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -9699,7 +9702,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{735C8702-AD52-4301-B6C6-0A0A7F35107A}">
   <dimension ref="A1:E265"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A70" workbookViewId="0">
       <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
@@ -14219,11 +14222,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC01F0D7-92D5-45D6-9029-9039A3C57EAD}">
   <dimension ref="A1:E289"/>
   <sheetViews>
-    <sheetView topLeftCell="A214" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="C265" sqref="C265"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="21.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -18883,7 +18889,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60295E2B-080A-44CA-9241-07668EB7AD5B}">
   <dimension ref="A1:E289"/>
   <sheetViews>
-    <sheetView topLeftCell="A248" workbookViewId="0">
+    <sheetView topLeftCell="A59" workbookViewId="0">
       <selection activeCell="I273" sqref="I273"/>
     </sheetView>
   </sheetViews>
@@ -23547,7 +23553,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74AB5B33-B611-4054-A1E5-400DAF0B6A70}">
   <dimension ref="A1:E289"/>
   <sheetViews>
-    <sheetView topLeftCell="A230" workbookViewId="0">
+    <sheetView topLeftCell="A59" workbookViewId="0">
       <selection activeCell="H270" sqref="H270"/>
     </sheetView>
   </sheetViews>
@@ -28211,7 +28217,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D791C1D-3CE5-4AB5-86A2-DA14746F9A86}">
   <dimension ref="A1:E265"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
@@ -32737,7 +32743,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFA3A385-4590-4577-9767-343D1BEECA05}">
   <dimension ref="A1:E265"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
@@ -37263,11 +37269,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07B89E56-A2B9-4E1C-8137-C67790F1BEEF}">
   <dimension ref="A1:E265"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
+    <sheetView topLeftCell="A67" workbookViewId="0">
       <selection activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="21.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
@@ -46303,11 +46312,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3392C416-C0AB-4C55-A86B-295724F3D8D5}">
   <dimension ref="A1:E289"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E25"/>
+    <sheetView topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -50968,11 +50980,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4043454-D373-4029-8496-97A92549D2B1}">
   <dimension ref="A1:E289"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A85" workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -55633,7 +55648,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9226C505-09B0-41CC-A249-C105A4DA1D82}">
   <dimension ref="A1:E265"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
@@ -60157,13 +60172,16 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD051E1D-2706-4ADF-8364-349F271FC947}">
-  <dimension ref="A1:E265"/>
+  <dimension ref="A1:E289"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A238" workbookViewId="0">
+      <selection activeCell="C266" sqref="C266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="21.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -64667,6 +64685,414 @@
         <v>41</v>
       </c>
       <c r="E265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>5</v>
+      </c>
+      <c r="B266" t="s">
+        <v>6</v>
+      </c>
+      <c r="C266" t="s">
+        <v>10</v>
+      </c>
+      <c r="D266" t="s">
+        <v>18</v>
+      </c>
+      <c r="E266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>5</v>
+      </c>
+      <c r="B267" t="s">
+        <v>6</v>
+      </c>
+      <c r="C267" t="s">
+        <v>10</v>
+      </c>
+      <c r="D267" t="s">
+        <v>19</v>
+      </c>
+      <c r="E267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>5</v>
+      </c>
+      <c r="B268" t="s">
+        <v>6</v>
+      </c>
+      <c r="C268" t="s">
+        <v>10</v>
+      </c>
+      <c r="D268" t="s">
+        <v>20</v>
+      </c>
+      <c r="E268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>5</v>
+      </c>
+      <c r="B269" t="s">
+        <v>6</v>
+      </c>
+      <c r="C269" t="s">
+        <v>10</v>
+      </c>
+      <c r="D269" t="s">
+        <v>21</v>
+      </c>
+      <c r="E269">
+        <v>9.0090090090090089E-3</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>5</v>
+      </c>
+      <c r="B270" t="s">
+        <v>6</v>
+      </c>
+      <c r="C270" t="s">
+        <v>10</v>
+      </c>
+      <c r="D270" t="s">
+        <v>22</v>
+      </c>
+      <c r="E270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>5</v>
+      </c>
+      <c r="B271" t="s">
+        <v>6</v>
+      </c>
+      <c r="C271" t="s">
+        <v>10</v>
+      </c>
+      <c r="D271" t="s">
+        <v>23</v>
+      </c>
+      <c r="E271">
+        <v>1.8018018018018021E-2</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>5</v>
+      </c>
+      <c r="B272" t="s">
+        <v>6</v>
+      </c>
+      <c r="C272" t="s">
+        <v>10</v>
+      </c>
+      <c r="D272" t="s">
+        <v>24</v>
+      </c>
+      <c r="E272">
+        <v>9.0090090090090089E-3</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>5</v>
+      </c>
+      <c r="B273" t="s">
+        <v>6</v>
+      </c>
+      <c r="C273" t="s">
+        <v>10</v>
+      </c>
+      <c r="D273" t="s">
+        <v>25</v>
+      </c>
+      <c r="E273">
+        <v>7.2072072072072071E-2</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>5</v>
+      </c>
+      <c r="B274" t="s">
+        <v>6</v>
+      </c>
+      <c r="C274" t="s">
+        <v>10</v>
+      </c>
+      <c r="D274" t="s">
+        <v>26</v>
+      </c>
+      <c r="E274">
+        <v>0.1081081081081081</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>5</v>
+      </c>
+      <c r="B275" t="s">
+        <v>6</v>
+      </c>
+      <c r="C275" t="s">
+        <v>10</v>
+      </c>
+      <c r="D275" t="s">
+        <v>27</v>
+      </c>
+      <c r="E275">
+        <v>4.5045045045045043E-2</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>5</v>
+      </c>
+      <c r="B276" t="s">
+        <v>6</v>
+      </c>
+      <c r="C276" t="s">
+        <v>10</v>
+      </c>
+      <c r="D276" t="s">
+        <v>28</v>
+      </c>
+      <c r="E276">
+        <v>0.1171171171171171</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>5</v>
+      </c>
+      <c r="B277" t="s">
+        <v>6</v>
+      </c>
+      <c r="C277" t="s">
+        <v>10</v>
+      </c>
+      <c r="D277" t="s">
+        <v>29</v>
+      </c>
+      <c r="E277">
+        <v>9.90990990990991E-2</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>5</v>
+      </c>
+      <c r="B278" t="s">
+        <v>6</v>
+      </c>
+      <c r="C278" t="s">
+        <v>10</v>
+      </c>
+      <c r="D278" t="s">
+        <v>30</v>
+      </c>
+      <c r="E278">
+        <v>4.5045045045045043E-2</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>5</v>
+      </c>
+      <c r="B279" t="s">
+        <v>6</v>
+      </c>
+      <c r="C279" t="s">
+        <v>10</v>
+      </c>
+      <c r="D279" t="s">
+        <v>31</v>
+      </c>
+      <c r="E279">
+        <v>0.1171171171171171</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>5</v>
+      </c>
+      <c r="B280" t="s">
+        <v>6</v>
+      </c>
+      <c r="C280" t="s">
+        <v>10</v>
+      </c>
+      <c r="D280" t="s">
+        <v>32</v>
+      </c>
+      <c r="E280">
+        <v>7.2072072072072071E-2</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>5</v>
+      </c>
+      <c r="B281" t="s">
+        <v>6</v>
+      </c>
+      <c r="C281" t="s">
+        <v>10</v>
+      </c>
+      <c r="D281" t="s">
+        <v>33</v>
+      </c>
+      <c r="E281">
+        <v>6.3063063063063057E-2</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>5</v>
+      </c>
+      <c r="B282" t="s">
+        <v>6</v>
+      </c>
+      <c r="C282" t="s">
+        <v>10</v>
+      </c>
+      <c r="D282" t="s">
+        <v>34</v>
+      </c>
+      <c r="E282">
+        <v>9.0090090090090086E-2</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>5</v>
+      </c>
+      <c r="B283" t="s">
+        <v>6</v>
+      </c>
+      <c r="C283" t="s">
+        <v>10</v>
+      </c>
+      <c r="D283" t="s">
+        <v>35</v>
+      </c>
+      <c r="E283">
+        <v>1.8018018018018021E-2</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>5</v>
+      </c>
+      <c r="B284" t="s">
+        <v>6</v>
+      </c>
+      <c r="C284" t="s">
+        <v>10</v>
+      </c>
+      <c r="D284" t="s">
+        <v>36</v>
+      </c>
+      <c r="E284">
+        <v>0.1081081081081081</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>5</v>
+      </c>
+      <c r="B285" t="s">
+        <v>6</v>
+      </c>
+      <c r="C285" t="s">
+        <v>10</v>
+      </c>
+      <c r="D285" t="s">
+        <v>37</v>
+      </c>
+      <c r="E285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>5</v>
+      </c>
+      <c r="B286" t="s">
+        <v>6</v>
+      </c>
+      <c r="C286" t="s">
+        <v>10</v>
+      </c>
+      <c r="D286" t="s">
+        <v>38</v>
+      </c>
+      <c r="E286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>5</v>
+      </c>
+      <c r="B287" t="s">
+        <v>6</v>
+      </c>
+      <c r="C287" t="s">
+        <v>10</v>
+      </c>
+      <c r="D287" t="s">
+        <v>39</v>
+      </c>
+      <c r="E287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>5</v>
+      </c>
+      <c r="B288" t="s">
+        <v>6</v>
+      </c>
+      <c r="C288" t="s">
+        <v>10</v>
+      </c>
+      <c r="D288" t="s">
+        <v>40</v>
+      </c>
+      <c r="E288">
+        <v>9.0090090090090089E-3</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>5</v>
+      </c>
+      <c r="B289" t="s">
+        <v>6</v>
+      </c>
+      <c r="C289" t="s">
+        <v>10</v>
+      </c>
+      <c r="D289" t="s">
+        <v>41</v>
+      </c>
+      <c r="E289">
         <v>0</v>
       </c>
     </row>

--- a/courbes_presentation.xlsx
+++ b/courbes_presentation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aeroportsdeparis-my.sharepoint.com/personal/wassim_zouitene_adp_fr/Documents/Documents/GitHub/pifprevi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="84" documentId="8_{AD1CC2AC-FCB9-430D-9A7B-B671BDD69D72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52264843-E1C4-49B5-AC84-C2ACE14C33D3}"/>
+  <xr:revisionPtr revIDLastSave="85" documentId="8_{AD1CC2AC-FCB9-430D-9A7B-B671BDD69D72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6451AD6B-F434-43B1-9C7F-055EC7C3EA35}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-3390" windowWidth="38640" windowHeight="21240" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19200" yWindow="-3270" windowWidth="19200" windowHeight="21000" firstSheet="6" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EK" sheetId="14" r:id="rId1"/>
@@ -328,6 +328,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -653,7 +657,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DC4C5DD-AF19-43BC-BED7-9381E519322E}">
   <dimension ref="A1:E265"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
@@ -14222,7 +14226,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC01F0D7-92D5-45D6-9029-9039A3C57EAD}">
   <dimension ref="A1:E289"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C265" sqref="C265"/>
     </sheetView>
   </sheetViews>
@@ -18889,7 +18893,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60295E2B-080A-44CA-9241-07668EB7AD5B}">
   <dimension ref="A1:E289"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I273" sqref="I273"/>
     </sheetView>
   </sheetViews>
@@ -23553,11 +23557,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74AB5B33-B611-4054-A1E5-400DAF0B6A70}">
   <dimension ref="A1:E289"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="H270" sqref="H270"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="E195" sqref="E195:E217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="21.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -50980,8 +50987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4043454-D373-4029-8496-97A92549D2B1}">
   <dimension ref="A1:E289"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -60174,8 +60181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD051E1D-2706-4ADF-8364-349F271FC947}">
   <dimension ref="A1:E289"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A238" workbookViewId="0">
-      <selection activeCell="C266" sqref="C266"/>
+    <sheetView topLeftCell="A238" workbookViewId="0">
+      <selection activeCell="H245" sqref="H245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
